--- a/астатистика/комон-воис-аҳәоуқәа-рыстатистика-астанда1-92k.xlsx
+++ b/астатистика/комон-воис-аҳәоуқәа-рыстатистика-астанда1-92k.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="517">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Иҩызагьы дхырсысуа дихагылан.</t>
   </si>
   <si>
-    <t xml:space="preserve">Уи иусура данналага инаркны, шамахамзар икабинет аҟны дубаӡомызт.</t>
+    <t xml:space="preserve">Уи иусура данналага инаркны, шамахамзар, икабинет аҟны дубаӡомызт.</t>
   </si>
   <si>
     <t xml:space="preserve">Нан-шьыр ҳҳәеит!</t>
@@ -1765,7 +1765,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1870,6 +1870,32 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1939,17 +1965,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E1044"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -1981,7 +2007,7 @@
       </c>
       <c r="E2" s="8" t="n">
         <f aca="false">COUNTIF($B$8:$B$507, "OK")/500</f>
-        <v>0</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +2021,7 @@
       </c>
       <c r="E3" s="8" t="n">
         <f aca="false">COUNTIF($B$8:$B$507, "A")/500</f>
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +2035,7 @@
       </c>
       <c r="E4" s="8" t="n">
         <f aca="false">COUNTIF($B$8:$B$507, "B")/500</f>
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +2061,7 @@
       </c>
       <c r="E6" s="11" t="n">
         <f aca="false">COUNTIF($B$8:$B$507, "D")/500</f>
-        <v>0</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2055,7 +2081,9 @@
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="9" t="n">
         <v>26</v>
       </c>
@@ -2066,7 +2094,9 @@
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="9" t="n">
         <v>25</v>
       </c>
@@ -2077,18 +2107,22 @@
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="9" t="n">
         <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="9" t="n">
         <v>19</v>
       </c>
@@ -2099,7 +2133,9 @@
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="9" t="n">
         <v>20</v>
       </c>
@@ -2110,7 +2146,9 @@
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="0" t="n">
         <v>11</v>
       </c>
@@ -2119,7 +2157,9 @@
       <c r="A14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
       </c>
@@ -2128,7 +2168,9 @@
       <c r="A15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="0" t="n">
         <v>25</v>
       </c>
@@ -2137,7 +2179,9 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
@@ -2146,7 +2190,9 @@
       <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
       </c>
@@ -2155,7 +2201,9 @@
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
@@ -2164,7 +2212,9 @@
       <c r="A19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="0" t="n">
         <v>11</v>
       </c>
@@ -2173,7 +2223,9 @@
       <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="0" t="n">
         <v>6</v>
       </c>
@@ -2182,7 +2234,9 @@
       <c r="A21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="0" t="n">
         <v>26</v>
       </c>
@@ -2191,7 +2245,9 @@
       <c r="A22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="0" t="n">
         <v>22</v>
       </c>
@@ -2200,7 +2256,9 @@
       <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="0" t="n">
         <v>11</v>
       </c>
@@ -2209,7 +2267,9 @@
       <c r="A24" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
       </c>
@@ -2218,7 +2278,9 @@
       <c r="A25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="0" t="n">
         <v>8</v>
       </c>
@@ -2227,7 +2289,9 @@
       <c r="A26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C26" s="0" t="n">
         <v>10</v>
       </c>
@@ -2236,7 +2300,9 @@
       <c r="A27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="0" t="n">
         <v>16</v>
       </c>
@@ -2245,7 +2311,9 @@
       <c r="A28" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C28" s="0" t="n">
         <v>11</v>
       </c>
@@ -2254,7 +2322,9 @@
       <c r="A29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="0" t="n">
         <v>22</v>
       </c>
@@ -2263,7 +2333,9 @@
       <c r="A30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C30" s="0" t="n">
         <v>12</v>
       </c>
@@ -2272,7 +2344,9 @@
       <c r="A31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="0" t="n">
         <v>26</v>
       </c>
@@ -2281,7 +2355,9 @@
       <c r="A32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="0" t="n">
         <v>23</v>
       </c>
@@ -2290,7 +2366,9 @@
       <c r="A33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
@@ -2299,7 +2377,9 @@
       <c r="A34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C34" s="0" t="n">
         <v>21</v>
       </c>
@@ -2308,7 +2388,9 @@
       <c r="A35" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" s="0" t="n">
         <v>16</v>
       </c>
@@ -2317,16 +2399,20 @@
       <c r="A36" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C36" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C37" s="0" t="n">
         <v>26</v>
       </c>
@@ -2335,7 +2421,9 @@
       <c r="A38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C38" s="0" t="n">
         <v>22</v>
       </c>
@@ -2344,7 +2432,9 @@
       <c r="A39" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C39" s="0" t="n">
         <v>25</v>
       </c>
@@ -2353,7 +2443,9 @@
       <c r="A40" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C40" s="0" t="n">
         <v>16</v>
       </c>
@@ -2362,7 +2454,9 @@
       <c r="A41" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C41" s="0" t="n">
         <v>8</v>
       </c>
@@ -2371,7 +2465,9 @@
       <c r="A42" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="0" t="n">
         <v>23</v>
       </c>
@@ -2380,7 +2476,9 @@
       <c r="A43" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="0" t="n">
         <v>19</v>
       </c>
@@ -2389,7 +2487,9 @@
       <c r="A44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="0" t="n">
         <v>12</v>
       </c>
@@ -2398,7 +2498,9 @@
       <c r="A45" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" s="0" t="n">
         <v>21</v>
       </c>
@@ -2407,7 +2509,9 @@
       <c r="A46" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" s="0" t="n">
         <v>25</v>
       </c>
@@ -2416,7 +2520,9 @@
       <c r="A47" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="0" t="n">
         <v>11</v>
       </c>
@@ -2425,7 +2531,9 @@
       <c r="A48" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="0" t="n">
         <v>14</v>
       </c>
@@ -2434,7 +2542,9 @@
       <c r="A49" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="0" t="n">
         <v>22</v>
       </c>
@@ -2443,7 +2553,9 @@
       <c r="A50" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C50" s="0" t="n">
         <v>14</v>
       </c>
@@ -2452,7 +2564,9 @@
       <c r="A51" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C51" s="0" t="n">
         <v>11</v>
       </c>
@@ -2461,7 +2575,9 @@
       <c r="A52" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C52" s="0" t="n">
         <v>20</v>
       </c>
@@ -2470,7 +2586,9 @@
       <c r="A53" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C53" s="0" t="n">
         <v>6</v>
       </c>
@@ -2479,7 +2597,9 @@
       <c r="A54" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C54" s="0" t="n">
         <v>11</v>
       </c>
@@ -2488,7 +2608,9 @@
       <c r="A55" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" s="0" t="n">
         <v>8</v>
       </c>
@@ -2497,7 +2619,9 @@
       <c r="A56" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="0" t="n">
         <v>12</v>
       </c>
@@ -2506,7 +2630,9 @@
       <c r="A57" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C57" s="0" t="n">
         <v>26</v>
       </c>
@@ -2515,7 +2641,9 @@
       <c r="A58" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C58" s="0" t="n">
         <v>12</v>
       </c>
@@ -2524,7 +2652,9 @@
       <c r="A59" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
@@ -2533,16 +2663,20 @@
       <c r="A60" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C61" s="0" t="n">
         <v>14</v>
       </c>
@@ -2551,7 +2685,9 @@
       <c r="A62" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C62" s="0" t="n">
         <v>10</v>
       </c>
@@ -2560,7 +2696,9 @@
       <c r="A63" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C63" s="0" t="n">
         <v>11</v>
       </c>
@@ -2569,7 +2707,9 @@
       <c r="A64" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C64" s="0" t="n">
         <v>14</v>
       </c>
@@ -2578,7 +2718,9 @@
       <c r="A65" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C65" s="0" t="n">
         <v>11</v>
       </c>
@@ -2587,7 +2729,9 @@
       <c r="A66" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C66" s="0" t="n">
         <v>14</v>
       </c>
@@ -2596,7 +2740,9 @@
       <c r="A67" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C67" s="0" t="n">
         <v>26</v>
       </c>
@@ -2605,7 +2751,9 @@
       <c r="A68" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C68" s="0" t="n">
         <v>14</v>
       </c>
@@ -2614,7 +2762,9 @@
       <c r="A69" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C69" s="0" t="n">
         <v>14</v>
       </c>
@@ -2623,7 +2773,9 @@
       <c r="A70" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="0" t="n">
         <v>9</v>
       </c>
@@ -2632,25 +2784,31 @@
       <c r="A71" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C71" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C72" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C73" s="0" t="n">
         <v>12</v>
       </c>
@@ -2659,7 +2817,9 @@
       <c r="A74" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C74" s="0" t="n">
         <v>13</v>
       </c>
@@ -2668,7 +2828,9 @@
       <c r="A75" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C75" s="0" t="n">
         <v>16</v>
       </c>
@@ -2677,7 +2839,9 @@
       <c r="A76" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C76" s="0" t="n">
         <v>10</v>
       </c>
@@ -2686,7 +2850,9 @@
       <c r="A77" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C77" s="0" t="n">
         <v>25</v>
       </c>
@@ -2695,16 +2861,20 @@
       <c r="A78" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C78" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C79" s="0" t="n">
         <v>17</v>
       </c>
@@ -2713,7 +2883,9 @@
       <c r="A80" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C80" s="0" t="n">
         <v>25</v>
       </c>
@@ -2722,7 +2894,9 @@
       <c r="A81" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C81" s="0" t="n">
         <v>11</v>
       </c>
@@ -2731,16 +2905,20 @@
       <c r="A82" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C82" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C83" s="0" t="n">
         <v>10</v>
       </c>
@@ -2749,7 +2927,9 @@
       <c r="A84" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C84" s="0" t="n">
         <v>3</v>
       </c>
@@ -2758,7 +2938,9 @@
       <c r="A85" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C85" s="0" t="n">
         <v>12</v>
       </c>
@@ -2767,7 +2949,9 @@
       <c r="A86" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C86" s="0" t="n">
         <v>12</v>
       </c>
@@ -2776,7 +2960,9 @@
       <c r="A87" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C87" s="0" t="n">
         <v>12</v>
       </c>
@@ -2785,7 +2971,9 @@
       <c r="A88" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C88" s="0" t="n">
         <v>16</v>
       </c>
@@ -2794,7 +2982,9 @@
       <c r="A89" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C89" s="0" t="n">
         <v>11</v>
       </c>
@@ -2803,7 +2993,9 @@
       <c r="A90" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C90" s="0" t="n">
         <v>14</v>
       </c>
@@ -2812,7 +3004,9 @@
       <c r="A91" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C91" s="0" t="n">
         <v>21</v>
       </c>
@@ -2821,7 +3015,9 @@
       <c r="A92" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C92" s="0" t="n">
         <v>22</v>
       </c>
@@ -2830,7 +3026,9 @@
       <c r="A93" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C93" s="0" t="n">
         <v>11</v>
       </c>
@@ -2839,7 +3037,9 @@
       <c r="A94" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C94" s="0" t="n">
         <v>9</v>
       </c>
@@ -2848,7 +3048,9 @@
       <c r="A95" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C95" s="0" t="n">
         <v>3</v>
       </c>
@@ -2857,16 +3059,20 @@
       <c r="A96" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C96" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C97" s="0" t="n">
         <v>22</v>
       </c>
@@ -2875,7 +3081,9 @@
       <c r="A98" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C98" s="0" t="n">
         <v>8</v>
       </c>
@@ -2884,7 +3092,9 @@
       <c r="A99" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C99" s="0" t="n">
         <v>11</v>
       </c>
@@ -2893,7 +3103,9 @@
       <c r="A100" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C100" s="0" t="n">
         <v>11</v>
       </c>
@@ -2902,7 +3114,9 @@
       <c r="A101" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C101" s="0" t="n">
         <v>21</v>
       </c>
@@ -2911,7 +3125,9 @@
       <c r="A102" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C102" s="0" t="n">
         <v>19</v>
       </c>
@@ -2920,7 +3136,9 @@
       <c r="A103" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C103" s="0" t="n">
         <v>16</v>
       </c>
@@ -2929,7 +3147,9 @@
       <c r="A104" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C104" s="0" t="n">
         <v>10</v>
       </c>
@@ -2938,7 +3158,9 @@
       <c r="A105" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
       </c>
@@ -2947,7 +3169,9 @@
       <c r="A106" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C106" s="0" t="n">
         <v>13</v>
       </c>
@@ -2956,7 +3180,9 @@
       <c r="A107" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C107" s="0" t="n">
         <v>12</v>
       </c>
@@ -2965,7 +3191,9 @@
       <c r="A108" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C108" s="0" t="n">
         <v>14</v>
       </c>
@@ -2974,7 +3202,9 @@
       <c r="A109" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C109" s="0" t="n">
         <v>22</v>
       </c>
@@ -2983,7 +3213,9 @@
       <c r="A110" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C110" s="0" t="n">
         <v>13</v>
       </c>
@@ -2992,7 +3224,9 @@
       <c r="A111" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C111" s="0" t="n">
         <v>11</v>
       </c>
@@ -3001,7 +3235,9 @@
       <c r="A112" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C112" s="0" t="n">
         <v>7</v>
       </c>
@@ -3010,7 +3246,9 @@
       <c r="A113" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C113" s="0" t="n">
         <v>15</v>
       </c>
@@ -3019,7 +3257,9 @@
       <c r="A114" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C114" s="0" t="n">
         <v>25</v>
       </c>
@@ -3028,7 +3268,9 @@
       <c r="A115" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="9"/>
+      <c r="B115" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C115" s="0" t="n">
         <v>14</v>
       </c>
@@ -3037,7 +3279,9 @@
       <c r="A116" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C116" s="0" t="n">
         <v>10</v>
       </c>
@@ -3046,7 +3290,9 @@
       <c r="A117" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C117" s="0" t="n">
         <v>14</v>
       </c>
@@ -3055,7 +3301,9 @@
       <c r="A118" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C118" s="0" t="n">
         <v>22</v>
       </c>
@@ -3064,7 +3312,9 @@
       <c r="A119" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C119" s="0" t="n">
         <v>14</v>
       </c>
@@ -3073,16 +3323,20 @@
       <c r="A120" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C120" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C121" s="0" t="n">
         <v>14</v>
       </c>
@@ -3091,7 +3345,9 @@
       <c r="A122" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C122" s="0" t="n">
         <v>6</v>
       </c>
@@ -3100,7 +3356,9 @@
       <c r="A123" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C123" s="0" t="n">
         <v>12</v>
       </c>
@@ -3109,7 +3367,9 @@
       <c r="A124" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="9"/>
+      <c r="B124" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C124" s="0" t="n">
         <v>16</v>
       </c>
@@ -3118,7 +3378,9 @@
       <c r="A125" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C125" s="0" t="n">
         <v>11</v>
       </c>
@@ -3127,7 +3389,9 @@
       <c r="A126" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C126" s="0" t="n">
         <v>25</v>
       </c>
@@ -3136,7 +3400,9 @@
       <c r="A127" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C127" s="0" t="n">
         <v>5</v>
       </c>
@@ -3145,7 +3411,9 @@
       <c r="A128" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C128" s="0" t="n">
         <v>16</v>
       </c>
@@ -3154,7 +3422,9 @@
       <c r="A129" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C129" s="0" t="n">
         <v>22</v>
       </c>
@@ -3163,7 +3433,9 @@
       <c r="A130" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C130" s="0" t="n">
         <v>22</v>
       </c>
@@ -3172,7 +3444,9 @@
       <c r="A131" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C131" s="0" t="n">
         <v>22</v>
       </c>
@@ -3181,7 +3455,9 @@
       <c r="A132" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C132" s="0" t="n">
         <v>8</v>
       </c>
@@ -3190,7 +3466,9 @@
       <c r="A133" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C133" s="0" t="n">
         <v>10</v>
       </c>
@@ -3199,7 +3477,9 @@
       <c r="A134" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C134" s="0" t="n">
         <v>11</v>
       </c>
@@ -3208,7 +3488,9 @@
       <c r="A135" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B135" s="9"/>
+      <c r="B135" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C135" s="0" t="n">
         <v>22</v>
       </c>
@@ -3217,16 +3499,20 @@
       <c r="A136" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="9"/>
+      <c r="B136" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C136" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="9"/>
+      <c r="B137" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C137" s="0" t="n">
         <v>10</v>
       </c>
@@ -3235,7 +3521,9 @@
       <c r="A138" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C138" s="0" t="n">
         <v>26</v>
       </c>
@@ -3244,7 +3532,9 @@
       <c r="A139" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C139" s="0" t="n">
         <v>14</v>
       </c>
@@ -3253,7 +3543,9 @@
       <c r="A140" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C140" s="0" t="n">
         <v>11</v>
       </c>
@@ -3262,16 +3554,20 @@
       <c r="A141" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C141" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C142" s="0" t="n">
         <v>5</v>
       </c>
@@ -3280,7 +3576,9 @@
       <c r="A143" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C143" s="0" t="n">
         <v>13</v>
       </c>
@@ -3289,7 +3587,9 @@
       <c r="A144" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="9"/>
+      <c r="B144" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C144" s="0" t="n">
         <v>3</v>
       </c>
@@ -3298,7 +3598,9 @@
       <c r="A145" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="9"/>
+      <c r="B145" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C145" s="0" t="n">
         <v>22</v>
       </c>
@@ -3307,7 +3609,9 @@
       <c r="A146" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="9"/>
+      <c r="B146" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C146" s="0" t="n">
         <v>26</v>
       </c>
@@ -3316,7 +3620,9 @@
       <c r="A147" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="9"/>
+      <c r="B147" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C147" s="0" t="n">
         <v>17</v>
       </c>
@@ -3325,7 +3631,9 @@
       <c r="A148" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="9"/>
+      <c r="B148" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C148" s="0" t="n">
         <v>22</v>
       </c>
@@ -3334,7 +3642,9 @@
       <c r="A149" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="9"/>
+      <c r="B149" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C149" s="0" t="n">
         <v>26</v>
       </c>
@@ -3343,7 +3653,9 @@
       <c r="A150" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C150" s="0" t="n">
         <v>19</v>
       </c>
@@ -3352,7 +3664,9 @@
       <c r="A151" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="9"/>
+      <c r="B151" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C151" s="0" t="n">
         <v>7</v>
       </c>
@@ -3361,7 +3675,9 @@
       <c r="A152" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="9"/>
+      <c r="B152" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C152" s="0" t="n">
         <v>7</v>
       </c>
@@ -3370,7 +3686,9 @@
       <c r="A153" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="9"/>
+      <c r="B153" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C153" s="0" t="n">
         <v>16</v>
       </c>
@@ -3379,7 +3697,9 @@
       <c r="A154" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="9"/>
+      <c r="B154" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C154" s="0" t="n">
         <v>26</v>
       </c>
@@ -3388,16 +3708,20 @@
       <c r="A155" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="9"/>
+      <c r="B155" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C155" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="9"/>
+      <c r="B156" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C156" s="0" t="n">
         <v>26</v>
       </c>
@@ -3406,16 +3730,20 @@
       <c r="A157" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C157" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="9"/>
+      <c r="B158" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C158" s="0" t="n">
         <v>19</v>
       </c>
@@ -3424,7 +3752,9 @@
       <c r="A159" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="9"/>
+      <c r="B159" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C159" s="0" t="n">
         <v>26</v>
       </c>
@@ -3433,7 +3763,9 @@
       <c r="A160" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="9"/>
+      <c r="B160" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C160" s="0" t="n">
         <v>23</v>
       </c>
@@ -3442,7 +3774,9 @@
       <c r="A161" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="9"/>
+      <c r="B161" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C161" s="0" t="n">
         <v>16</v>
       </c>
@@ -3451,7 +3785,9 @@
       <c r="A162" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="9"/>
+      <c r="B162" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C162" s="0" t="n">
         <v>17</v>
       </c>
@@ -3460,7 +3796,9 @@
       <c r="A163" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B163" s="9"/>
+      <c r="B163" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C163" s="0" t="n">
         <v>14</v>
       </c>
@@ -3469,7 +3807,9 @@
       <c r="A164" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="9"/>
+      <c r="B164" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C164" s="0" t="n">
         <v>13</v>
       </c>
@@ -3478,7 +3818,9 @@
       <c r="A165" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="9"/>
+      <c r="B165" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C165" s="0" t="n">
         <v>19</v>
       </c>
@@ -3487,7 +3829,9 @@
       <c r="A166" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="9"/>
+      <c r="B166" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C166" s="0" t="n">
         <v>25</v>
       </c>
@@ -3496,7 +3840,9 @@
       <c r="A167" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="9"/>
+      <c r="B167" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C167" s="0" t="n">
         <v>12</v>
       </c>
@@ -3505,7 +3851,9 @@
       <c r="A168" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="9"/>
+      <c r="B168" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C168" s="0" t="n">
         <v>25</v>
       </c>
@@ -3514,7 +3862,9 @@
       <c r="A169" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="9"/>
+      <c r="B169" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C169" s="0" t="n">
         <v>24</v>
       </c>
@@ -3523,7 +3873,9 @@
       <c r="A170" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B170" s="9"/>
+      <c r="B170" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C170" s="0" t="n">
         <v>11</v>
       </c>
@@ -3532,7 +3884,9 @@
       <c r="A171" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="9"/>
+      <c r="B171" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C171" s="0" t="n">
         <v>22</v>
       </c>
@@ -3541,7 +3895,9 @@
       <c r="A172" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B172" s="9"/>
+      <c r="B172" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C172" s="0" t="n">
         <v>20</v>
       </c>
@@ -3550,7 +3906,9 @@
       <c r="A173" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B173" s="9"/>
+      <c r="B173" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C173" s="0" t="n">
         <v>7</v>
       </c>
@@ -3559,7 +3917,9 @@
       <c r="A174" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="9"/>
+      <c r="B174" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C174" s="0" t="n">
         <v>5</v>
       </c>
@@ -3568,7 +3928,9 @@
       <c r="A175" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="9"/>
+      <c r="B175" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C175" s="0" t="n">
         <v>9</v>
       </c>
@@ -3577,16 +3939,20 @@
       <c r="A176" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="9"/>
+      <c r="B176" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C176" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="9"/>
+      <c r="B177" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C177" s="0" t="n">
         <v>24</v>
       </c>
@@ -3595,7 +3961,9 @@
       <c r="A178" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="9"/>
+      <c r="B178" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C178" s="0" t="n">
         <v>10</v>
       </c>
@@ -3604,7 +3972,9 @@
       <c r="A179" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="9"/>
+      <c r="B179" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C179" s="0" t="n">
         <v>11</v>
       </c>
@@ -3613,7 +3983,9 @@
       <c r="A180" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="9"/>
+      <c r="B180" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C180" s="0" t="n">
         <v>3</v>
       </c>
@@ -3622,7 +3994,9 @@
       <c r="A181" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="9"/>
+      <c r="B181" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C181" s="0" t="n">
         <v>22</v>
       </c>
@@ -3631,7 +4005,9 @@
       <c r="A182" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="9"/>
+      <c r="B182" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C182" s="0" t="n">
         <v>6</v>
       </c>
@@ -3640,7 +4016,9 @@
       <c r="A183" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="9"/>
+      <c r="B183" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C183" s="0" t="n">
         <v>21</v>
       </c>
@@ -3649,7 +4027,9 @@
       <c r="A184" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="9"/>
+      <c r="B184" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C184" s="0" t="n">
         <v>22</v>
       </c>
@@ -3658,7 +4038,9 @@
       <c r="A185" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="9"/>
+      <c r="B185" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C185" s="0" t="n">
         <v>14</v>
       </c>
@@ -3667,16 +4049,20 @@
       <c r="A186" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="9"/>
+      <c r="B186" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C186" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="9"/>
+      <c r="B187" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C187" s="0" t="n">
         <v>12</v>
       </c>
@@ -3685,7 +4071,9 @@
       <c r="A188" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C188" s="0" t="n">
         <v>12</v>
       </c>
@@ -3694,7 +4082,9 @@
       <c r="A189" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="9"/>
+      <c r="B189" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C189" s="0" t="n">
         <v>20</v>
       </c>
@@ -3703,7 +4093,9 @@
       <c r="A190" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="9"/>
+      <c r="B190" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C190" s="0" t="n">
         <v>9</v>
       </c>
@@ -3712,7 +4104,9 @@
       <c r="A191" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="9"/>
+      <c r="B191" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C191" s="0" t="n">
         <v>5</v>
       </c>
@@ -3721,7 +4115,9 @@
       <c r="A192" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="9"/>
+      <c r="B192" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C192" s="0" t="n">
         <v>11</v>
       </c>
@@ -3730,7 +4126,9 @@
       <c r="A193" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="9"/>
+      <c r="B193" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C193" s="0" t="n">
         <v>25</v>
       </c>
@@ -3739,7 +4137,9 @@
       <c r="A194" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="9"/>
+      <c r="B194" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C194" s="0" t="n">
         <v>6</v>
       </c>
@@ -3748,7 +4148,9 @@
       <c r="A195" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="9"/>
+      <c r="B195" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C195" s="0" t="n">
         <v>16</v>
       </c>
@@ -3757,7 +4159,9 @@
       <c r="A196" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="9"/>
+      <c r="B196" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C196" s="0" t="n">
         <v>10</v>
       </c>
@@ -3766,16 +4170,20 @@
       <c r="A197" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="9"/>
+      <c r="B197" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C197" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="9"/>
+      <c r="B198" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C198" s="0" t="n">
         <v>14</v>
       </c>
@@ -3784,7 +4192,9 @@
       <c r="A199" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="9"/>
+      <c r="B199" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C199" s="0" t="n">
         <v>19</v>
       </c>
@@ -3793,7 +4203,9 @@
       <c r="A200" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="9"/>
+      <c r="B200" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C200" s="0" t="n">
         <v>12</v>
       </c>
@@ -3802,7 +4214,9 @@
       <c r="A201" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="9"/>
+      <c r="B201" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C201" s="0" t="n">
         <v>3</v>
       </c>
@@ -3811,7 +4225,9 @@
       <c r="A202" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="9"/>
+      <c r="B202" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C202" s="0" t="n">
         <v>22</v>
       </c>
@@ -3820,7 +4236,9 @@
       <c r="A203" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="9"/>
+      <c r="B203" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C203" s="0" t="n">
         <v>11</v>
       </c>
@@ -3829,7 +4247,9 @@
       <c r="A204" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="9"/>
+      <c r="B204" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C204" s="0" t="n">
         <v>23</v>
       </c>
@@ -3838,7 +4258,9 @@
       <c r="A205" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="9"/>
+      <c r="B205" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C205" s="0" t="n">
         <v>12</v>
       </c>
@@ -3847,7 +4269,9 @@
       <c r="A206" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C206" s="0" t="n">
         <v>5</v>
       </c>
@@ -3856,7 +4280,9 @@
       <c r="A207" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="9"/>
+      <c r="B207" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C207" s="0" t="n">
         <v>3</v>
       </c>
@@ -3865,7 +4291,9 @@
       <c r="A208" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B208" s="9"/>
+      <c r="B208" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C208" s="0" t="n">
         <v>13</v>
       </c>
@@ -3874,7 +4302,9 @@
       <c r="A209" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B209" s="9"/>
+      <c r="B209" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C209" s="0" t="n">
         <v>9</v>
       </c>
@@ -3883,16 +4313,20 @@
       <c r="A210" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="9"/>
+      <c r="B210" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C210" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B211" s="9"/>
+      <c r="B211" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C211" s="0" t="n">
         <v>16</v>
       </c>
@@ -3901,7 +4335,9 @@
       <c r="A212" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B212" s="9"/>
+      <c r="B212" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C212" s="0" t="n">
         <v>14</v>
       </c>
@@ -3910,7 +4346,9 @@
       <c r="A213" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C213" s="0" t="n">
         <v>17</v>
       </c>
@@ -3919,7 +4357,9 @@
       <c r="A214" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B214" s="9"/>
+      <c r="B214" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C214" s="0" t="n">
         <v>20</v>
       </c>
@@ -3928,7 +4368,9 @@
       <c r="A215" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="9"/>
+      <c r="B215" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C215" s="0" t="n">
         <v>14</v>
       </c>
@@ -3937,7 +4379,9 @@
       <c r="A216" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B216" s="9"/>
+      <c r="B216" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C216" s="0" t="n">
         <v>14</v>
       </c>
@@ -3946,7 +4390,9 @@
       <c r="A217" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="9"/>
+      <c r="B217" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C217" s="0" t="n">
         <v>21</v>
       </c>
@@ -3955,7 +4401,9 @@
       <c r="A218" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B218" s="9"/>
+      <c r="B218" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C218" s="0" t="n">
         <v>9</v>
       </c>
@@ -3964,7 +4412,9 @@
       <c r="A219" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="9"/>
+      <c r="B219" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C219" s="0" t="n">
         <v>23</v>
       </c>
@@ -3973,7 +4423,9 @@
       <c r="A220" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="9"/>
+      <c r="B220" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C220" s="0" t="n">
         <v>22</v>
       </c>
@@ -3982,7 +4434,9 @@
       <c r="A221" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="9"/>
+      <c r="B221" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C221" s="0" t="n">
         <v>8</v>
       </c>
@@ -3991,7 +4445,9 @@
       <c r="A222" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B222" s="9"/>
+      <c r="B222" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C222" s="0" t="n">
         <v>10</v>
       </c>
@@ -4000,7 +4456,9 @@
       <c r="A223" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B223" s="9"/>
+      <c r="B223" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C223" s="0" t="n">
         <v>11</v>
       </c>
@@ -4009,7 +4467,9 @@
       <c r="A224" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="9"/>
+      <c r="B224" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C224" s="0" t="n">
         <v>19</v>
       </c>
@@ -4018,7 +4478,9 @@
       <c r="A225" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B225" s="9"/>
+      <c r="B225" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C225" s="0" t="n">
         <v>8</v>
       </c>
@@ -4027,7 +4489,9 @@
       <c r="A226" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B226" s="9"/>
+      <c r="B226" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C226" s="0" t="n">
         <v>22</v>
       </c>
@@ -4036,7 +4500,9 @@
       <c r="A227" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B227" s="9"/>
+      <c r="B227" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C227" s="0" t="n">
         <v>23</v>
       </c>
@@ -4045,7 +4511,9 @@
       <c r="A228" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B228" s="9"/>
+      <c r="B228" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C228" s="0" t="n">
         <v>20</v>
       </c>
@@ -4054,7 +4522,9 @@
       <c r="A229" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B229" s="9"/>
+      <c r="B229" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C229" s="0" t="n">
         <v>22</v>
       </c>
@@ -4063,7 +4533,9 @@
       <c r="A230" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B230" s="9"/>
+      <c r="B230" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C230" s="0" t="n">
         <v>8</v>
       </c>
@@ -4072,7 +4544,9 @@
       <c r="A231" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="9"/>
+      <c r="B231" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C231" s="0" t="n">
         <v>9</v>
       </c>
@@ -4081,7 +4555,9 @@
       <c r="A232" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B232" s="9"/>
+      <c r="B232" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C232" s="0" t="n">
         <v>3</v>
       </c>
@@ -4090,7 +4566,9 @@
       <c r="A233" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B233" s="9"/>
+      <c r="B233" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C233" s="0" t="n">
         <v>23</v>
       </c>
@@ -4099,7 +4577,9 @@
       <c r="A234" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B234" s="9"/>
+      <c r="B234" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C234" s="0" t="n">
         <v>8</v>
       </c>
@@ -4108,7 +4588,9 @@
       <c r="A235" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B235" s="9"/>
+      <c r="B235" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C235" s="0" t="n">
         <v>16</v>
       </c>
@@ -4117,7 +4599,9 @@
       <c r="A236" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B236" s="9"/>
+      <c r="B236" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C236" s="0" t="n">
         <v>11</v>
       </c>
@@ -4126,7 +4610,9 @@
       <c r="A237" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B237" s="9"/>
+      <c r="B237" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C237" s="0" t="n">
         <v>7</v>
       </c>
@@ -4135,7 +4621,9 @@
       <c r="A238" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B238" s="9"/>
+      <c r="B238" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C238" s="0" t="n">
         <v>22</v>
       </c>
@@ -4144,7 +4632,9 @@
       <c r="A239" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B239" s="9"/>
+      <c r="B239" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C239" s="0" t="n">
         <v>11</v>
       </c>
@@ -4153,7 +4643,9 @@
       <c r="A240" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B240" s="9"/>
+      <c r="B240" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C240" s="0" t="n">
         <v>8</v>
       </c>
@@ -4162,7 +4654,9 @@
       <c r="A241" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B241" s="9"/>
+      <c r="B241" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C241" s="0" t="n">
         <v>11</v>
       </c>
@@ -4171,7 +4665,9 @@
       <c r="A242" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B242" s="9"/>
+      <c r="B242" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C242" s="0" t="n">
         <v>11</v>
       </c>
@@ -4180,7 +4676,9 @@
       <c r="A243" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B243" s="9"/>
+      <c r="B243" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C243" s="0" t="n">
         <v>11</v>
       </c>
@@ -4189,7 +4687,9 @@
       <c r="A244" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B244" s="9"/>
+      <c r="B244" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C244" s="0" t="n">
         <v>14</v>
       </c>
@@ -4198,7 +4698,9 @@
       <c r="A245" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B245" s="9"/>
+      <c r="B245" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C245" s="0" t="n">
         <v>22</v>
       </c>
@@ -4207,7 +4709,9 @@
       <c r="A246" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B246" s="9"/>
+      <c r="B246" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C246" s="0" t="n">
         <v>8</v>
       </c>
@@ -4216,7 +4720,9 @@
       <c r="A247" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B247" s="9"/>
+      <c r="B247" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C247" s="0" t="n">
         <v>8</v>
       </c>
@@ -4225,7 +4731,9 @@
       <c r="A248" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B248" s="9"/>
+      <c r="B248" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C248" s="0" t="n">
         <v>8</v>
       </c>
@@ -4234,7 +4742,9 @@
       <c r="A249" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B249" s="9"/>
+      <c r="B249" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C249" s="0" t="n">
         <v>10</v>
       </c>
@@ -4243,16 +4753,20 @@
       <c r="A250" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B250" s="9"/>
+      <c r="B250" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C250" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B251" s="9"/>
+      <c r="B251" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C251" s="0" t="n">
         <v>3</v>
       </c>
@@ -4261,7 +4775,9 @@
       <c r="A252" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B252" s="9"/>
+      <c r="B252" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C252" s="0" t="n">
         <v>10</v>
       </c>
@@ -4270,7 +4786,9 @@
       <c r="A253" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B253" s="9"/>
+      <c r="B253" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C253" s="0" t="n">
         <v>22</v>
       </c>
@@ -4279,7 +4797,9 @@
       <c r="A254" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B254" s="9"/>
+      <c r="B254" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C254" s="0" t="n">
         <v>14</v>
       </c>
@@ -4288,7 +4808,9 @@
       <c r="A255" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B255" s="9"/>
+      <c r="B255" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C255" s="0" t="n">
         <v>18</v>
       </c>
@@ -4297,7 +4819,9 @@
       <c r="A256" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B256" s="9"/>
+      <c r="B256" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C256" s="0" t="n">
         <v>8</v>
       </c>
@@ -4306,7 +4830,9 @@
       <c r="A257" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B257" s="9"/>
+      <c r="B257" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C257" s="0" t="n">
         <v>11</v>
       </c>
@@ -4315,7 +4841,9 @@
       <c r="A258" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B258" s="9"/>
+      <c r="B258" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C258" s="0" t="n">
         <v>8</v>
       </c>
@@ -4324,7 +4852,9 @@
       <c r="A259" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B259" s="9"/>
+      <c r="B259" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C259" s="0" t="n">
         <v>6</v>
       </c>
@@ -4333,7 +4863,9 @@
       <c r="A260" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B260" s="9"/>
+      <c r="B260" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C260" s="0" t="n">
         <v>26</v>
       </c>
@@ -4342,7 +4874,9 @@
       <c r="A261" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B261" s="9"/>
+      <c r="B261" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C261" s="0" t="n">
         <v>22</v>
       </c>
@@ -4351,7 +4885,9 @@
       <c r="A262" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B262" s="9"/>
+      <c r="B262" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C262" s="0" t="n">
         <v>14</v>
       </c>
@@ -4360,7 +4896,9 @@
       <c r="A263" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B263" s="9"/>
+      <c r="B263" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C263" s="0" t="n">
         <v>5</v>
       </c>
@@ -4369,7 +4907,9 @@
       <c r="A264" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B264" s="9"/>
+      <c r="B264" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C264" s="0" t="n">
         <v>26</v>
       </c>
@@ -4378,7 +4918,9 @@
       <c r="A265" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B265" s="9"/>
+      <c r="B265" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C265" s="0" t="n">
         <v>16</v>
       </c>
@@ -4387,7 +4929,9 @@
       <c r="A266" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B266" s="9"/>
+      <c r="B266" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C266" s="0" t="n">
         <v>16</v>
       </c>
@@ -4396,7 +4940,9 @@
       <c r="A267" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B267" s="9"/>
+      <c r="B267" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C267" s="0" t="n">
         <v>10</v>
       </c>
@@ -4405,7 +4951,9 @@
       <c r="A268" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B268" s="9"/>
+      <c r="B268" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C268" s="0" t="n">
         <v>23</v>
       </c>
@@ -4414,7 +4962,9 @@
       <c r="A269" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B269" s="9"/>
+      <c r="B269" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C269" s="0" t="n">
         <v>12</v>
       </c>
@@ -4423,7 +4973,9 @@
       <c r="A270" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="9"/>
+      <c r="B270" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C270" s="0" t="n">
         <v>22</v>
       </c>
@@ -4432,7 +4984,9 @@
       <c r="A271" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B271" s="9"/>
+      <c r="B271" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C271" s="0" t="n">
         <v>7</v>
       </c>
@@ -4441,7 +4995,9 @@
       <c r="A272" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B272" s="9"/>
+      <c r="B272" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C272" s="0" t="n">
         <v>11</v>
       </c>
@@ -4450,7 +5006,9 @@
       <c r="A273" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B273" s="9"/>
+      <c r="B273" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C273" s="0" t="n">
         <v>20</v>
       </c>
@@ -4459,7 +5017,9 @@
       <c r="A274" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B274" s="9"/>
+      <c r="B274" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C274" s="0" t="n">
         <v>23</v>
       </c>
@@ -4468,7 +5028,9 @@
       <c r="A275" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B275" s="9"/>
+      <c r="B275" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C275" s="0" t="n">
         <v>11</v>
       </c>
@@ -4477,7 +5039,9 @@
       <c r="A276" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B276" s="9"/>
+      <c r="B276" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C276" s="0" t="n">
         <v>10</v>
       </c>
@@ -4486,7 +5050,9 @@
       <c r="A277" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B277" s="9"/>
+      <c r="B277" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C277" s="0" t="n">
         <v>11</v>
       </c>
@@ -4495,7 +5061,9 @@
       <c r="A278" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B278" s="9"/>
+      <c r="B278" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C278" s="0" t="n">
         <v>22</v>
       </c>
@@ -4504,7 +5072,9 @@
       <c r="A279" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B279" s="9"/>
+      <c r="B279" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C279" s="0" t="n">
         <v>22</v>
       </c>
@@ -4513,7 +5083,9 @@
       <c r="A280" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B280" s="9"/>
+      <c r="B280" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C280" s="0" t="n">
         <v>23</v>
       </c>
@@ -4522,7 +5094,9 @@
       <c r="A281" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B281" s="9"/>
+      <c r="B281" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C281" s="0" t="n">
         <v>9</v>
       </c>
@@ -4531,7 +5105,9 @@
       <c r="A282" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="9"/>
+      <c r="B282" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C282" s="0" t="n">
         <v>16</v>
       </c>
@@ -4540,7 +5116,9 @@
       <c r="A283" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B283" s="9"/>
+      <c r="B283" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C283" s="0" t="n">
         <v>13</v>
       </c>
@@ -4549,7 +5127,9 @@
       <c r="A284" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B284" s="9"/>
+      <c r="B284" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C284" s="0" t="n">
         <v>22</v>
       </c>
@@ -4558,7 +5138,9 @@
       <c r="A285" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B285" s="9"/>
+      <c r="B285" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C285" s="0" t="n">
         <v>11</v>
       </c>
@@ -4567,7 +5149,9 @@
       <c r="A286" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="9"/>
+      <c r="B286" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C286" s="0" t="n">
         <v>13</v>
       </c>
@@ -4576,7 +5160,9 @@
       <c r="A287" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B287" s="9"/>
+      <c r="B287" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C287" s="0" t="n">
         <v>8</v>
       </c>
@@ -4585,7 +5171,9 @@
       <c r="A288" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B288" s="9"/>
+      <c r="B288" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C288" s="0" t="n">
         <v>12</v>
       </c>
@@ -4594,7 +5182,9 @@
       <c r="A289" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B289" s="9"/>
+      <c r="B289" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C289" s="0" t="n">
         <v>16</v>
       </c>
@@ -4603,7 +5193,9 @@
       <c r="A290" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="9"/>
+      <c r="B290" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C290" s="0" t="n">
         <v>14</v>
       </c>
@@ -4612,7 +5204,9 @@
       <c r="A291" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B291" s="9"/>
+      <c r="B291" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C291" s="0" t="n">
         <v>7</v>
       </c>
@@ -4621,7 +5215,9 @@
       <c r="A292" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B292" s="9"/>
+      <c r="B292" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C292" s="0" t="n">
         <v>14</v>
       </c>
@@ -4630,7 +5226,9 @@
       <c r="A293" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B293" s="9"/>
+      <c r="B293" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C293" s="0" t="n">
         <v>18</v>
       </c>
@@ -4639,16 +5237,20 @@
       <c r="A294" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B294" s="9"/>
+      <c r="B294" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C294" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B295" s="9"/>
+      <c r="B295" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C295" s="0" t="n">
         <v>13</v>
       </c>
@@ -4657,7 +5259,9 @@
       <c r="A296" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B296" s="9"/>
+      <c r="B296" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C296" s="0" t="n">
         <v>10</v>
       </c>
@@ -4666,7 +5270,9 @@
       <c r="A297" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="9"/>
+      <c r="B297" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C297" s="0" t="n">
         <v>15</v>
       </c>
@@ -4675,7 +5281,9 @@
       <c r="A298" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B298" s="9"/>
+      <c r="B298" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C298" s="0" t="n">
         <v>16</v>
       </c>
@@ -4684,7 +5292,9 @@
       <c r="A299" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B299" s="9"/>
+      <c r="B299" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C299" s="0" t="n">
         <v>5</v>
       </c>
@@ -4693,7 +5303,9 @@
       <c r="A300" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B300" s="9"/>
+      <c r="B300" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C300" s="0" t="n">
         <v>10</v>
       </c>
@@ -4702,7 +5314,9 @@
       <c r="A301" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="9"/>
+      <c r="B301" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C301" s="0" t="n">
         <v>15</v>
       </c>
@@ -4711,7 +5325,9 @@
       <c r="A302" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B302" s="9"/>
+      <c r="B302" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C302" s="0" t="n">
         <v>14</v>
       </c>
@@ -4720,7 +5336,9 @@
       <c r="A303" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B303" s="9"/>
+      <c r="B303" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C303" s="0" t="n">
         <v>26</v>
       </c>
@@ -4729,7 +5347,9 @@
       <c r="A304" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B304" s="9"/>
+      <c r="B304" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C304" s="0" t="n">
         <v>11</v>
       </c>
@@ -4738,7 +5358,9 @@
       <c r="A305" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B305" s="9"/>
+      <c r="B305" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C305" s="0" t="n">
         <v>11</v>
       </c>
@@ -4747,7 +5369,9 @@
       <c r="A306" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B306" s="9"/>
+      <c r="B306" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C306" s="0" t="n">
         <v>3</v>
       </c>
@@ -4756,7 +5380,9 @@
       <c r="A307" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B307" s="9"/>
+      <c r="B307" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C307" s="0" t="n">
         <v>25</v>
       </c>
@@ -4765,16 +5391,20 @@
       <c r="A308" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B308" s="9"/>
+      <c r="B308" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C308" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="9"/>
+      <c r="B309" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C309" s="0" t="n">
         <v>16</v>
       </c>
@@ -4783,7 +5413,9 @@
       <c r="A310" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B310" s="9"/>
+      <c r="B310" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C310" s="0" t="n">
         <v>3</v>
       </c>
@@ -4792,7 +5424,9 @@
       <c r="A311" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B311" s="9"/>
+      <c r="B311" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C311" s="0" t="n">
         <v>7</v>
       </c>
@@ -4801,7 +5435,9 @@
       <c r="A312" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B312" s="9"/>
+      <c r="B312" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C312" s="0" t="n">
         <v>23</v>
       </c>
@@ -4810,7 +5446,9 @@
       <c r="A313" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B313" s="9"/>
+      <c r="B313" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C313" s="0" t="n">
         <v>15</v>
       </c>
@@ -4819,7 +5457,9 @@
       <c r="A314" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B314" s="9"/>
+      <c r="B314" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C314" s="0" t="n">
         <v>22</v>
       </c>
@@ -4828,7 +5468,9 @@
       <c r="A315" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B315" s="9"/>
+      <c r="B315" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C315" s="0" t="n">
         <v>18</v>
       </c>
@@ -4837,7 +5479,9 @@
       <c r="A316" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B316" s="9"/>
+      <c r="B316" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C316" s="0" t="n">
         <v>17</v>
       </c>
@@ -4846,7 +5490,9 @@
       <c r="A317" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="9"/>
+      <c r="B317" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C317" s="0" t="n">
         <v>11</v>
       </c>
@@ -4855,7 +5501,9 @@
       <c r="A318" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B318" s="9"/>
+      <c r="B318" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C318" s="0" t="n">
         <v>11</v>
       </c>
@@ -4864,7 +5512,9 @@
       <c r="A319" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B319" s="9"/>
+      <c r="B319" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C319" s="0" t="n">
         <v>13</v>
       </c>
@@ -4873,7 +5523,9 @@
       <c r="A320" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B320" s="9"/>
+      <c r="B320" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C320" s="0" t="n">
         <v>19</v>
       </c>
@@ -4882,7 +5534,9 @@
       <c r="A321" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B321" s="9"/>
+      <c r="B321" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C321" s="0" t="n">
         <v>7</v>
       </c>
@@ -4891,7 +5545,9 @@
       <c r="A322" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B322" s="9"/>
+      <c r="B322" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C322" s="0" t="n">
         <v>25</v>
       </c>
@@ -4900,7 +5556,9 @@
       <c r="A323" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B323" s="9"/>
+      <c r="B323" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C323" s="0" t="n">
         <v>13</v>
       </c>
@@ -4909,7 +5567,9 @@
       <c r="A324" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B324" s="9"/>
+      <c r="B324" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C324" s="0" t="n">
         <v>3</v>
       </c>
@@ -4918,7 +5578,9 @@
       <c r="A325" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B325" s="9"/>
+      <c r="B325" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C325" s="0" t="n">
         <v>14</v>
       </c>
@@ -4927,7 +5589,9 @@
       <c r="A326" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B326" s="9"/>
+      <c r="B326" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C326" s="0" t="n">
         <v>10</v>
       </c>
@@ -4936,7 +5600,9 @@
       <c r="A327" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B327" s="9"/>
+      <c r="B327" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C327" s="0" t="n">
         <v>8</v>
       </c>
@@ -4945,7 +5611,9 @@
       <c r="A328" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B328" s="9"/>
+      <c r="B328" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C328" s="0" t="n">
         <v>14</v>
       </c>
@@ -4954,7 +5622,9 @@
       <c r="A329" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B329" s="9"/>
+      <c r="B329" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C329" s="0" t="n">
         <v>8</v>
       </c>
@@ -4963,7 +5633,9 @@
       <c r="A330" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B330" s="9"/>
+      <c r="B330" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C330" s="0" t="n">
         <v>14</v>
       </c>
@@ -4972,7 +5644,9 @@
       <c r="A331" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B331" s="9"/>
+      <c r="B331" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C331" s="0" t="n">
         <v>7</v>
       </c>
@@ -4981,7 +5655,9 @@
       <c r="A332" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B332" s="9"/>
+      <c r="B332" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C332" s="0" t="n">
         <v>12</v>
       </c>
@@ -4990,7 +5666,9 @@
       <c r="A333" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B333" s="9"/>
+      <c r="B333" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C333" s="0" t="n">
         <v>9</v>
       </c>
@@ -4999,7 +5677,9 @@
       <c r="A334" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B334" s="9"/>
+      <c r="B334" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C334" s="0" t="n">
         <v>10</v>
       </c>
@@ -5008,7 +5688,9 @@
       <c r="A335" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B335" s="9"/>
+      <c r="B335" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C335" s="0" t="n">
         <v>7</v>
       </c>
@@ -5017,7 +5699,9 @@
       <c r="A336" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B336" s="9"/>
+      <c r="B336" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C336" s="0" t="n">
         <v>12</v>
       </c>
@@ -5026,7 +5710,9 @@
       <c r="A337" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B337" s="9"/>
+      <c r="B337" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C337" s="0" t="n">
         <v>11</v>
       </c>
@@ -5035,7 +5721,9 @@
       <c r="A338" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B338" s="9"/>
+      <c r="B338" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C338" s="0" t="n">
         <v>9</v>
       </c>
@@ -5044,7 +5732,9 @@
       <c r="A339" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B339" s="9"/>
+      <c r="B339" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C339" s="0" t="n">
         <v>22</v>
       </c>
@@ -5053,7 +5743,9 @@
       <c r="A340" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B340" s="9"/>
+      <c r="B340" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C340" s="0" t="n">
         <v>9</v>
       </c>
@@ -5062,7 +5754,9 @@
       <c r="A341" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B341" s="9"/>
+      <c r="B341" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C341" s="0" t="n">
         <v>9</v>
       </c>
@@ -5071,7 +5765,9 @@
       <c r="A342" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B342" s="9"/>
+      <c r="B342" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C342" s="0" t="n">
         <v>26</v>
       </c>
@@ -5080,7 +5776,9 @@
       <c r="A343" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="B343" s="9"/>
+      <c r="B343" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C343" s="0" t="n">
         <v>11</v>
       </c>
@@ -5089,7 +5787,9 @@
       <c r="A344" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B344" s="9"/>
+      <c r="B344" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C344" s="0" t="n">
         <v>22</v>
       </c>
@@ -5098,7 +5798,9 @@
       <c r="A345" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B345" s="9"/>
+      <c r="B345" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C345" s="0" t="n">
         <v>19</v>
       </c>
@@ -5107,7 +5809,9 @@
       <c r="A346" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B346" s="9"/>
+      <c r="B346" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C346" s="0" t="n">
         <v>9</v>
       </c>
@@ -5116,7 +5820,9 @@
       <c r="A347" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B347" s="9"/>
+      <c r="B347" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C347" s="0" t="n">
         <v>6</v>
       </c>
@@ -5125,7 +5831,9 @@
       <c r="A348" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B348" s="9"/>
+      <c r="B348" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C348" s="0" t="n">
         <v>13</v>
       </c>
@@ -5134,7 +5842,9 @@
       <c r="A349" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B349" s="9"/>
+      <c r="B349" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C349" s="0" t="n">
         <v>8</v>
       </c>
@@ -5143,7 +5853,9 @@
       <c r="A350" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B350" s="9"/>
+      <c r="B350" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C350" s="0" t="n">
         <v>22</v>
       </c>
@@ -5152,7 +5864,9 @@
       <c r="A351" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B351" s="9"/>
+      <c r="B351" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C351" s="0" t="n">
         <v>22</v>
       </c>
@@ -5161,7 +5875,9 @@
       <c r="A352" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B352" s="9"/>
+      <c r="B352" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C352" s="0" t="n">
         <v>20</v>
       </c>
@@ -5170,7 +5886,9 @@
       <c r="A353" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B353" s="9"/>
+      <c r="B353" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C353" s="0" t="n">
         <v>11</v>
       </c>
@@ -5179,7 +5897,9 @@
       <c r="A354" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B354" s="9"/>
+      <c r="B354" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C354" s="0" t="n">
         <v>25</v>
       </c>
@@ -5188,7 +5908,9 @@
       <c r="A355" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B355" s="9"/>
+      <c r="B355" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C355" s="0" t="n">
         <v>22</v>
       </c>
@@ -5197,7 +5919,9 @@
       <c r="A356" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B356" s="9"/>
+      <c r="B356" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C356" s="0" t="n">
         <v>12</v>
       </c>
@@ -5206,7 +5930,9 @@
       <c r="A357" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B357" s="9"/>
+      <c r="B357" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C357" s="0" t="n">
         <v>12</v>
       </c>
@@ -5215,7 +5941,9 @@
       <c r="A358" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B358" s="9"/>
+      <c r="B358" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C358" s="0" t="n">
         <v>26</v>
       </c>
@@ -5224,7 +5952,9 @@
       <c r="A359" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B359" s="9"/>
+      <c r="B359" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C359" s="0" t="n">
         <v>14</v>
       </c>
@@ -5233,7 +5963,9 @@
       <c r="A360" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B360" s="9"/>
+      <c r="B360" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C360" s="0" t="n">
         <v>14</v>
       </c>
@@ -5242,7 +5974,9 @@
       <c r="A361" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B361" s="9"/>
+      <c r="B361" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C361" s="0" t="n">
         <v>13</v>
       </c>
@@ -5251,7 +5985,9 @@
       <c r="A362" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B362" s="9"/>
+      <c r="B362" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C362" s="0" t="n">
         <v>11</v>
       </c>
@@ -5260,7 +5996,9 @@
       <c r="A363" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B363" s="9"/>
+      <c r="B363" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C363" s="0" t="n">
         <v>13</v>
       </c>
@@ -5269,7 +6007,9 @@
       <c r="A364" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B364" s="9"/>
+      <c r="B364" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C364" s="0" t="n">
         <v>12</v>
       </c>
@@ -5278,7 +6018,9 @@
       <c r="A365" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B365" s="9"/>
+      <c r="B365" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C365" s="0" t="n">
         <v>8</v>
       </c>
@@ -5287,7 +6029,9 @@
       <c r="A366" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="B366" s="9"/>
+      <c r="B366" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C366" s="0" t="n">
         <v>10</v>
       </c>
@@ -5296,7 +6040,9 @@
       <c r="A367" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B367" s="9"/>
+      <c r="B367" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C367" s="0" t="n">
         <v>14</v>
       </c>
@@ -5305,7 +6051,9 @@
       <c r="A368" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B368" s="9"/>
+      <c r="B368" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C368" s="0" t="n">
         <v>11</v>
       </c>
@@ -5314,7 +6062,9 @@
       <c r="A369" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B369" s="9"/>
+      <c r="B369" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C369" s="0" t="n">
         <v>7</v>
       </c>
@@ -5323,7 +6073,9 @@
       <c r="A370" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B370" s="9"/>
+      <c r="B370" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C370" s="0" t="n">
         <v>11</v>
       </c>
@@ -5332,7 +6084,9 @@
       <c r="A371" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B371" s="9"/>
+      <c r="B371" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C371" s="0" t="n">
         <v>16</v>
       </c>
@@ -5341,7 +6095,9 @@
       <c r="A372" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B372" s="9"/>
+      <c r="B372" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C372" s="0" t="n">
         <v>23</v>
       </c>
@@ -5350,7 +6106,9 @@
       <c r="A373" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B373" s="9"/>
+      <c r="B373" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C373" s="0" t="n">
         <v>14</v>
       </c>
@@ -5359,7 +6117,9 @@
       <c r="A374" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B374" s="9"/>
+      <c r="B374" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C374" s="0" t="n">
         <v>13</v>
       </c>
@@ -5368,7 +6128,9 @@
       <c r="A375" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B375" s="9"/>
+      <c r="B375" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C375" s="0" t="n">
         <v>14</v>
       </c>
@@ -5377,7 +6139,9 @@
       <c r="A376" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B376" s="9"/>
+      <c r="B376" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C376" s="0" t="n">
         <v>14</v>
       </c>
@@ -5386,7 +6150,9 @@
       <c r="A377" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B377" s="9"/>
+      <c r="B377" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C377" s="0" t="n">
         <v>11</v>
       </c>
@@ -5395,7 +6161,9 @@
       <c r="A378" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B378" s="9"/>
+      <c r="B378" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C378" s="0" t="n">
         <v>7</v>
       </c>
@@ -5404,7 +6172,9 @@
       <c r="A379" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B379" s="9"/>
+      <c r="B379" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C379" s="0" t="n">
         <v>21</v>
       </c>
@@ -5413,7 +6183,9 @@
       <c r="A380" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B380" s="9"/>
+      <c r="B380" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C380" s="0" t="n">
         <v>11</v>
       </c>
@@ -5422,7 +6194,9 @@
       <c r="A381" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B381" s="9"/>
+      <c r="B381" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C381" s="0" t="n">
         <v>14</v>
       </c>
@@ -5431,7 +6205,9 @@
       <c r="A382" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B382" s="9"/>
+      <c r="B382" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C382" s="0" t="n">
         <v>22</v>
       </c>
@@ -5440,7 +6216,9 @@
       <c r="A383" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B383" s="9"/>
+      <c r="B383" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C383" s="0" t="n">
         <v>6</v>
       </c>
@@ -5449,7 +6227,9 @@
       <c r="A384" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B384" s="9"/>
+      <c r="B384" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C384" s="0" t="n">
         <v>14</v>
       </c>
@@ -5458,7 +6238,9 @@
       <c r="A385" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B385" s="9"/>
+      <c r="B385" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C385" s="0" t="n">
         <v>22</v>
       </c>
@@ -5467,7 +6249,9 @@
       <c r="A386" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B386" s="9"/>
+      <c r="B386" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C386" s="0" t="n">
         <v>3</v>
       </c>
@@ -5476,7 +6260,9 @@
       <c r="A387" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B387" s="9"/>
+      <c r="B387" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C387" s="0" t="n">
         <v>11</v>
       </c>
@@ -5485,7 +6271,9 @@
       <c r="A388" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B388" s="9"/>
+      <c r="B388" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C388" s="0" t="n">
         <v>16</v>
       </c>
@@ -5494,7 +6282,9 @@
       <c r="A389" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B389" s="9"/>
+      <c r="B389" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C389" s="0" t="n">
         <v>14</v>
       </c>
@@ -5503,7 +6293,9 @@
       <c r="A390" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B390" s="9"/>
+      <c r="B390" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C390" s="0" t="n">
         <v>5</v>
       </c>
@@ -5512,7 +6304,9 @@
       <c r="A391" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B391" s="9"/>
+      <c r="B391" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C391" s="0" t="n">
         <v>14</v>
       </c>
@@ -5521,16 +6315,20 @@
       <c r="A392" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B392" s="9"/>
+      <c r="B392" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C392" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B393" s="9"/>
+      <c r="B393" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C393" s="0" t="n">
         <v>22</v>
       </c>
@@ -5539,7 +6337,9 @@
       <c r="A394" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B394" s="9"/>
+      <c r="B394" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C394" s="0" t="n">
         <v>11</v>
       </c>
@@ -5548,7 +6348,9 @@
       <c r="A395" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B395" s="9"/>
+      <c r="B395" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C395" s="0" t="n">
         <v>25</v>
       </c>
@@ -5557,7 +6359,9 @@
       <c r="A396" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B396" s="9"/>
+      <c r="B396" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C396" s="0" t="n">
         <v>22</v>
       </c>
@@ -5566,7 +6370,9 @@
       <c r="A397" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B397" s="9"/>
+      <c r="B397" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C397" s="0" t="n">
         <v>13</v>
       </c>
@@ -5575,7 +6381,9 @@
       <c r="A398" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B398" s="9"/>
+      <c r="B398" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C398" s="0" t="n">
         <v>14</v>
       </c>
@@ -5584,7 +6392,9 @@
       <c r="A399" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B399" s="9"/>
+      <c r="B399" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C399" s="0" t="n">
         <v>21</v>
       </c>
@@ -5593,7 +6403,9 @@
       <c r="A400" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B400" s="9"/>
+      <c r="B400" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C400" s="0" t="n">
         <v>14</v>
       </c>
@@ -5602,7 +6414,9 @@
       <c r="A401" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B401" s="9"/>
+      <c r="B401" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C401" s="0" t="n">
         <v>24</v>
       </c>
@@ -5611,7 +6425,9 @@
       <c r="A402" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B402" s="9"/>
+      <c r="B402" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C402" s="0" t="n">
         <v>23</v>
       </c>
@@ -5620,7 +6436,9 @@
       <c r="A403" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B403" s="9"/>
+      <c r="B403" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C403" s="0" t="n">
         <v>8</v>
       </c>
@@ -5629,7 +6447,9 @@
       <c r="A404" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B404" s="9"/>
+      <c r="B404" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C404" s="0" t="n">
         <v>8</v>
       </c>
@@ -5638,7 +6458,9 @@
       <c r="A405" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B405" s="9"/>
+      <c r="B405" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C405" s="0" t="n">
         <v>20</v>
       </c>
@@ -5647,7 +6469,9 @@
       <c r="A406" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B406" s="9"/>
+      <c r="B406" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C406" s="0" t="n">
         <v>22</v>
       </c>
@@ -5656,7 +6480,9 @@
       <c r="A407" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B407" s="9"/>
+      <c r="B407" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C407" s="0" t="n">
         <v>18</v>
       </c>
@@ -5665,7 +6491,9 @@
       <c r="A408" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B408" s="9"/>
+      <c r="B408" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C408" s="0" t="n">
         <v>19</v>
       </c>
@@ -5674,7 +6502,9 @@
       <c r="A409" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B409" s="9"/>
+      <c r="B409" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C409" s="0" t="n">
         <v>12</v>
       </c>
@@ -5683,7 +6513,9 @@
       <c r="A410" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B410" s="9"/>
+      <c r="B410" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C410" s="0" t="n">
         <v>22</v>
       </c>
@@ -5692,7 +6524,9 @@
       <c r="A411" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B411" s="9"/>
+      <c r="B411" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C411" s="0" t="n">
         <v>12</v>
       </c>
@@ -5701,7 +6535,9 @@
       <c r="A412" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B412" s="9"/>
+      <c r="B412" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C412" s="0" t="n">
         <v>13</v>
       </c>
@@ -5710,16 +6546,20 @@
       <c r="A413" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B413" s="9"/>
+      <c r="B413" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C413" s="0" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B414" s="9"/>
+      <c r="B414" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C414" s="0" t="n">
         <v>18</v>
       </c>
@@ -5728,7 +6568,9 @@
       <c r="A415" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B415" s="9"/>
+      <c r="B415" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C415" s="0" t="n">
         <v>8</v>
       </c>
@@ -5737,7 +6579,9 @@
       <c r="A416" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B416" s="9"/>
+      <c r="B416" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C416" s="0" t="n">
         <v>7</v>
       </c>
@@ -5746,7 +6590,9 @@
       <c r="A417" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="B417" s="9"/>
+      <c r="B417" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C417" s="0" t="n">
         <v>12</v>
       </c>
@@ -5755,7 +6601,9 @@
       <c r="A418" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B418" s="9"/>
+      <c r="B418" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C418" s="0" t="n">
         <v>11</v>
       </c>
@@ -5764,7 +6612,9 @@
       <c r="A419" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="B419" s="9"/>
+      <c r="B419" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C419" s="0" t="n">
         <v>8</v>
       </c>
@@ -5773,7 +6623,9 @@
       <c r="A420" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B420" s="9"/>
+      <c r="B420" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C420" s="0" t="n">
         <v>23</v>
       </c>
@@ -5782,7 +6634,9 @@
       <c r="A421" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B421" s="9"/>
+      <c r="B421" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C421" s="0" t="n">
         <v>11</v>
       </c>
@@ -5791,7 +6645,9 @@
       <c r="A422" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B422" s="9"/>
+      <c r="B422" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C422" s="0" t="n">
         <v>16</v>
       </c>
@@ -5800,7 +6656,9 @@
       <c r="A423" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B423" s="9"/>
+      <c r="B423" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C423" s="0" t="n">
         <v>22</v>
       </c>
@@ -5809,7 +6667,9 @@
       <c r="A424" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B424" s="9"/>
+      <c r="B424" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C424" s="0" t="n">
         <v>12</v>
       </c>
@@ -5818,7 +6678,9 @@
       <c r="A425" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B425" s="9"/>
+      <c r="B425" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C425" s="0" t="n">
         <v>20</v>
       </c>
@@ -5827,7 +6689,9 @@
       <c r="A426" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B426" s="9"/>
+      <c r="B426" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C426" s="0" t="n">
         <v>17</v>
       </c>
@@ -5836,7 +6700,9 @@
       <c r="A427" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B427" s="9"/>
+      <c r="B427" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C427" s="0" t="n">
         <v>25</v>
       </c>
@@ -5845,7 +6711,9 @@
       <c r="A428" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B428" s="9"/>
+      <c r="B428" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C428" s="0" t="n">
         <v>22</v>
       </c>
@@ -5854,7 +6722,9 @@
       <c r="A429" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B429" s="9"/>
+      <c r="B429" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C429" s="0" t="n">
         <v>21</v>
       </c>
@@ -5863,7 +6733,9 @@
       <c r="A430" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B430" s="9"/>
+      <c r="B430" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C430" s="0" t="n">
         <v>13</v>
       </c>
@@ -5872,7 +6744,9 @@
       <c r="A431" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B431" s="9"/>
+      <c r="B431" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C431" s="0" t="n">
         <v>13</v>
       </c>
@@ -5881,7 +6755,9 @@
       <c r="A432" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B432" s="9"/>
+      <c r="B432" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C432" s="0" t="n">
         <v>13</v>
       </c>
@@ -5890,7 +6766,9 @@
       <c r="A433" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B433" s="9"/>
+      <c r="B433" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C433" s="0" t="n">
         <v>11</v>
       </c>
@@ -5899,7 +6777,9 @@
       <c r="A434" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="B434" s="9"/>
+      <c r="B434" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C434" s="0" t="n">
         <v>12</v>
       </c>
@@ -5908,7 +6788,9 @@
       <c r="A435" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B435" s="9"/>
+      <c r="B435" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C435" s="0" t="n">
         <v>9</v>
       </c>
@@ -5917,7 +6799,9 @@
       <c r="A436" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B436" s="9"/>
+      <c r="B436" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C436" s="0" t="n">
         <v>21</v>
       </c>
@@ -5926,7 +6810,9 @@
       <c r="A437" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B437" s="9"/>
+      <c r="B437" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C437" s="0" t="n">
         <v>15</v>
       </c>
@@ -5935,7 +6821,9 @@
       <c r="A438" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B438" s="9"/>
+      <c r="B438" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C438" s="0" t="n">
         <v>9</v>
       </c>
@@ -5944,16 +6832,20 @@
       <c r="A439" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B439" s="9"/>
+      <c r="B439" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C439" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B440" s="9"/>
+      <c r="B440" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C440" s="0" t="n">
         <v>13</v>
       </c>
@@ -5962,7 +6854,9 @@
       <c r="A441" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B441" s="9"/>
+      <c r="B441" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C441" s="0" t="n">
         <v>26</v>
       </c>
@@ -5971,7 +6865,9 @@
       <c r="A442" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B442" s="9"/>
+      <c r="B442" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C442" s="0" t="n">
         <v>7</v>
       </c>
@@ -5980,7 +6876,9 @@
       <c r="A443" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B443" s="9"/>
+      <c r="B443" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C443" s="0" t="n">
         <v>11</v>
       </c>
@@ -5989,7 +6887,9 @@
       <c r="A444" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B444" s="9"/>
+      <c r="B444" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C444" s="0" t="n">
         <v>22</v>
       </c>
@@ -5998,7 +6898,9 @@
       <c r="A445" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B445" s="9"/>
+      <c r="B445" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C445" s="0" t="n">
         <v>6</v>
       </c>
@@ -6007,7 +6909,9 @@
       <c r="A446" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="B446" s="9"/>
+      <c r="B446" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C446" s="0" t="n">
         <v>10</v>
       </c>
@@ -6016,7 +6920,9 @@
       <c r="A447" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B447" s="9"/>
+      <c r="B447" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C447" s="0" t="n">
         <v>11</v>
       </c>
@@ -6025,7 +6931,9 @@
       <c r="A448" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B448" s="9"/>
+      <c r="B448" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C448" s="0" t="n">
         <v>12</v>
       </c>
@@ -6034,7 +6942,9 @@
       <c r="A449" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B449" s="9"/>
+      <c r="B449" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C449" s="0" t="n">
         <v>14</v>
       </c>
@@ -6043,7 +6953,9 @@
       <c r="A450" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="B450" s="9"/>
+      <c r="B450" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C450" s="0" t="n">
         <v>11</v>
       </c>
@@ -6052,7 +6964,9 @@
       <c r="A451" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B451" s="9"/>
+      <c r="B451" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C451" s="0" t="n">
         <v>11</v>
       </c>
@@ -6061,7 +6975,9 @@
       <c r="A452" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B452" s="9"/>
+      <c r="B452" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C452" s="0" t="n">
         <v>8</v>
       </c>
@@ -6070,7 +6986,9 @@
       <c r="A453" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B453" s="9"/>
+      <c r="B453" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C453" s="0" t="n">
         <v>8</v>
       </c>
@@ -6079,16 +6997,20 @@
       <c r="A454" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B454" s="9"/>
+      <c r="B454" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C454" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B455" s="9"/>
+      <c r="B455" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C455" s="0" t="n">
         <v>6</v>
       </c>
@@ -6097,16 +7019,20 @@
       <c r="A456" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B456" s="9"/>
+      <c r="B456" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C456" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B457" s="9"/>
+      <c r="B457" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C457" s="0" t="n">
         <v>14</v>
       </c>
@@ -6115,7 +7041,9 @@
       <c r="A458" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B458" s="9"/>
+      <c r="B458" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C458" s="0" t="n">
         <v>12</v>
       </c>
@@ -6124,7 +7052,9 @@
       <c r="A459" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B459" s="9"/>
+      <c r="B459" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C459" s="0" t="n">
         <v>3</v>
       </c>
@@ -6133,7 +7063,9 @@
       <c r="A460" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B460" s="9"/>
+      <c r="B460" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C460" s="0" t="n">
         <v>25</v>
       </c>
@@ -6142,7 +7074,9 @@
       <c r="A461" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B461" s="9"/>
+      <c r="B461" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C461" s="0" t="n">
         <v>14</v>
       </c>
@@ -6151,7 +7085,9 @@
       <c r="A462" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B462" s="9"/>
+      <c r="B462" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C462" s="0" t="n">
         <v>10</v>
       </c>
@@ -6160,7 +7096,9 @@
       <c r="A463" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B463" s="9"/>
+      <c r="B463" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C463" s="0" t="n">
         <v>25</v>
       </c>
@@ -6169,7 +7107,9 @@
       <c r="A464" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B464" s="9"/>
+      <c r="B464" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C464" s="0" t="n">
         <v>11</v>
       </c>
@@ -6178,7 +7118,9 @@
       <c r="A465" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B465" s="9"/>
+      <c r="B465" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C465" s="0" t="n">
         <v>14</v>
       </c>
@@ -6187,7 +7129,9 @@
       <c r="A466" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B466" s="9"/>
+      <c r="B466" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C466" s="0" t="n">
         <v>12</v>
       </c>
@@ -6196,7 +7140,9 @@
       <c r="A467" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B467" s="9"/>
+      <c r="B467" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C467" s="0" t="n">
         <v>16</v>
       </c>
@@ -6205,7 +7151,9 @@
       <c r="A468" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="B468" s="9"/>
+      <c r="B468" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C468" s="0" t="n">
         <v>7</v>
       </c>
@@ -6214,7 +7162,9 @@
       <c r="A469" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B469" s="9"/>
+      <c r="B469" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C469" s="0" t="n">
         <v>22</v>
       </c>
@@ -6223,16 +7173,20 @@
       <c r="A470" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B470" s="9"/>
+      <c r="B470" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C470" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B471" s="9"/>
+      <c r="B471" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C471" s="0" t="n">
         <v>26</v>
       </c>
@@ -6241,7 +7195,9 @@
       <c r="A472" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="B472" s="9"/>
+      <c r="B472" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C472" s="0" t="n">
         <v>16</v>
       </c>
@@ -6250,7 +7206,9 @@
       <c r="A473" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="B473" s="9"/>
+      <c r="B473" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C473" s="0" t="n">
         <v>10</v>
       </c>
@@ -6259,7 +7217,9 @@
       <c r="A474" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B474" s="9"/>
+      <c r="B474" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C474" s="0" t="n">
         <v>8</v>
       </c>
@@ -6268,7 +7228,9 @@
       <c r="A475" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="B475" s="9"/>
+      <c r="B475" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C475" s="0" t="n">
         <v>14</v>
       </c>
@@ -6277,7 +7239,9 @@
       <c r="A476" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B476" s="9"/>
+      <c r="B476" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C476" s="0" t="n">
         <v>22</v>
       </c>
@@ -6286,7 +7250,9 @@
       <c r="A477" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B477" s="9"/>
+      <c r="B477" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C477" s="0" t="n">
         <v>12</v>
       </c>
@@ -6295,7 +7261,9 @@
       <c r="A478" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B478" s="9"/>
+      <c r="B478" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C478" s="0" t="n">
         <v>16</v>
       </c>
@@ -6304,7 +7272,9 @@
       <c r="A479" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="B479" s="9"/>
+      <c r="B479" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C479" s="0" t="n">
         <v>6</v>
       </c>
@@ -6313,7 +7283,9 @@
       <c r="A480" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="B480" s="9"/>
+      <c r="B480" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C480" s="0" t="n">
         <v>9</v>
       </c>
@@ -6322,7 +7294,9 @@
       <c r="A481" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B481" s="9"/>
+      <c r="B481" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C481" s="0" t="n">
         <v>20</v>
       </c>
@@ -6331,7 +7305,9 @@
       <c r="A482" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B482" s="9"/>
+      <c r="B482" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C482" s="0" t="n">
         <v>8</v>
       </c>
@@ -6340,7 +7316,9 @@
       <c r="A483" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B483" s="9"/>
+      <c r="B483" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C483" s="0" t="n">
         <v>6</v>
       </c>
@@ -6349,16 +7327,20 @@
       <c r="A484" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B484" s="9"/>
+      <c r="B484" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C484" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B485" s="9"/>
+      <c r="B485" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C485" s="0" t="n">
         <v>9</v>
       </c>
@@ -6367,7 +7349,9 @@
       <c r="A486" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="B486" s="9"/>
+      <c r="B486" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C486" s="0" t="n">
         <v>10</v>
       </c>
@@ -6376,7 +7360,9 @@
       <c r="A487" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B487" s="9"/>
+      <c r="B487" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C487" s="0" t="n">
         <v>12</v>
       </c>
@@ -6385,7 +7371,9 @@
       <c r="A488" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="B488" s="9"/>
+      <c r="B488" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C488" s="0" t="n">
         <v>12</v>
       </c>
@@ -6394,7 +7382,9 @@
       <c r="A489" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B489" s="9"/>
+      <c r="B489" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C489" s="0" t="n">
         <v>3</v>
       </c>
@@ -6403,7 +7393,9 @@
       <c r="A490" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="B490" s="9"/>
+      <c r="B490" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C490" s="0" t="n">
         <v>23</v>
       </c>
@@ -6412,7 +7404,9 @@
       <c r="A491" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B491" s="9"/>
+      <c r="B491" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C491" s="0" t="n">
         <v>22</v>
       </c>
@@ -6421,16 +7415,20 @@
       <c r="A492" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B492" s="9"/>
+      <c r="B492" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C492" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B493" s="9"/>
+      <c r="B493" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C493" s="0" t="n">
         <v>26</v>
       </c>
@@ -6439,7 +7437,9 @@
       <c r="A494" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B494" s="9"/>
+      <c r="B494" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C494" s="0" t="n">
         <v>23</v>
       </c>
@@ -6448,7 +7448,9 @@
       <c r="A495" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B495" s="9"/>
+      <c r="B495" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C495" s="0" t="n">
         <v>6</v>
       </c>
@@ -6457,7 +7459,9 @@
       <c r="A496" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B496" s="9"/>
+      <c r="B496" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C496" s="0" t="n">
         <v>21</v>
       </c>
@@ -6466,7 +7470,9 @@
       <c r="A497" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B497" s="9"/>
+      <c r="B497" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C497" s="0" t="n">
         <v>9</v>
       </c>
@@ -6475,7 +7481,9 @@
       <c r="A498" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B498" s="9"/>
+      <c r="B498" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C498" s="0" t="n">
         <v>24</v>
       </c>
@@ -6484,7 +7492,9 @@
       <c r="A499" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B499" s="9"/>
+      <c r="B499" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C499" s="0" t="n">
         <v>22</v>
       </c>
@@ -6493,16 +7503,20 @@
       <c r="A500" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B500" s="9"/>
+      <c r="B500" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C500" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="B501" s="9"/>
+      <c r="B501" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C501" s="0" t="n">
         <v>20</v>
       </c>
@@ -6511,7 +7525,9 @@
       <c r="A502" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B502" s="9"/>
+      <c r="B502" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C502" s="0" t="n">
         <v>11</v>
       </c>
@@ -6520,7 +7536,9 @@
       <c r="A503" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B503" s="9"/>
+      <c r="B503" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C503" s="0" t="n">
         <v>26</v>
       </c>
@@ -6529,7 +7547,9 @@
       <c r="A504" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="B504" s="9"/>
+      <c r="B504" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C504" s="0" t="n">
         <v>8</v>
       </c>
@@ -6538,7 +7558,9 @@
       <c r="A505" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="B505" s="9"/>
+      <c r="B505" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C505" s="0" t="n">
         <v>17</v>
       </c>
@@ -6547,1632 +7569,1635 @@
       <c r="A506" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B506" s="9"/>
+      <c r="B506" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C506" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="B507" s="9"/>
+      <c r="B507" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C507" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="9"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="9"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B510" s="9"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="9"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="9"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="9"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="9"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="9"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="9"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="9"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="9"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="9"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="9"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="9"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="9"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="9"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="9"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="9"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="9"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="9"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="9"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="9"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="9"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="9"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="9"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B533" s="9"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="9"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="9"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="9"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="9"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="9"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="9"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="9"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="9"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="9"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="9"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="9"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="9"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="9"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="9"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="9"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="9"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="9"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="9"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="9"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="9"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="9"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="9"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="9"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="9"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="9"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="9"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="9"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="9"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="9"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="9"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="9"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="9"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="9"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="9"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="9"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="9"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="9"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="9"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="9"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="9"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="9"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="9"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="9"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="9"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="9"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="9"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="9"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="9"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="9"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="9"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="9"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="9"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="9"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="9"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="9"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="9"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="9"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="9"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="9"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="9"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="9"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="9"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="9"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="9"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="9"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="9"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="9"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="9"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="9"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="9"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="9"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="9"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="9"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="9"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="9"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="9"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="9"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B611" s="9"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B612" s="9"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="9"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="9"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="9"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B616" s="9"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="9"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="9"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B619" s="9"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B620" s="9"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B621" s="9"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B622" s="9"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="9"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B624" s="9"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B625" s="9"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B626" s="9"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B627" s="9"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B628" s="9"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B629" s="9"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B630" s="9"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B631" s="9"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="9"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B633" s="9"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="9"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B635" s="9"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B636" s="9"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="9"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B638" s="9"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="9"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="9"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="9"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="9"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B643" s="9"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B644" s="9"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B645" s="9"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B646" s="9"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B647" s="9"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B648" s="9"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B649" s="9"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="9"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B651" s="9"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="9"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="9"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="9"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="9"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="9"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="9"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="9"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="9"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="9"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="9"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="9"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="9"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="9"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="9"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="9"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="9"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="9"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="9"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B670" s="9"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="9"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="9"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B673" s="9"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="9"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="9"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B676" s="9"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="9"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B678" s="9"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="9"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="9"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="9"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="9"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B683" s="9"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B684" s="9"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="9"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="9"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="9"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B688" s="9"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B689" s="9"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="9"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B691" s="9"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B692" s="9"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B693" s="9"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B694" s="9"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="9"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B696" s="9"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B697" s="9"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B698" s="9"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B699" s="9"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B700" s="9"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B701" s="9"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B702" s="9"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="9"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="9"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="9"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="9"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="9"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="9"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="9"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="9"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="9"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="9"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="9"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="9"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="9"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="9"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="9"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="9"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="9"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="9"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="9"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="9"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="9"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="9"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="9"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="9"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="9"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="9"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="9"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="9"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B731" s="9"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B732" s="9"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="9"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B734" s="9"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="9"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="9"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="9"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="9"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="9"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="9"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B741" s="9"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="9"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B743" s="9"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B744" s="9"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B745" s="9"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="9"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="9"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="9"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="9"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="9"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B751" s="9"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B752" s="9"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B753" s="9"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="9"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B755" s="9"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="9"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="9"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B758" s="9"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="9"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B760" s="9"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="9"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="9"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="9"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B764" s="9"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B765" s="9"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B766" s="9"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B767" s="9"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="9"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="9"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="9"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="9"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B772" s="9"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B773" s="9"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B774" s="9"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B775" s="9"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B776" s="9"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B777" s="9"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B778" s="9"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B779" s="9"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B780" s="9"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B781" s="9"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B782" s="9"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B783" s="9"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B784" s="9"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B785" s="9"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B786" s="9"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="9"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B788" s="9"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="9"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="9"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B791" s="9"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B792" s="9"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B793" s="9"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B794" s="9"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="9"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B796" s="9"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B797" s="9"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B798" s="9"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B799" s="9"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B800" s="9"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B801" s="9"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="9"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B803" s="9"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B804" s="9"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B805" s="9"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B806" s="9"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B807" s="9"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B808" s="9"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B809" s="9"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="9"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B811" s="9"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B812" s="9"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B813" s="9"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="9"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B815" s="9"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B816" s="9"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B817" s="9"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B818" s="9"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B819" s="9"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B820" s="9"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B821" s="9"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B822" s="9"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="9"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B824" s="9"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B825" s="9"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B826" s="9"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B827" s="9"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B828" s="9"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B829" s="9"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B830" s="9"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B831" s="9"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="9"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="9"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B834" s="9"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="9"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="9"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B837" s="9"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B838" s="9"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B839" s="9"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="9"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B841" s="9"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B842" s="9"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B843" s="9"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B844" s="9"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B845" s="9"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B846" s="9"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="9"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B848" s="9"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B849" s="9"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B850" s="9"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="9"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="9"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="9"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B854" s="9"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B855" s="9"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B856" s="9"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B857" s="9"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B858" s="9"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B859" s="9"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B860" s="9"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="9"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B862" s="9"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="9"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="9"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B865" s="9"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B866" s="9"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="9"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="9"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B869" s="9"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="9"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="9"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B872" s="9"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B873" s="9"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B874" s="9"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B875" s="9"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B876" s="9"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="9"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B878" s="9"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="9"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="9"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B881" s="9"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B882" s="9"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="9"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="9"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B885" s="9"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B886" s="9"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="9"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B888" s="9"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B889" s="9"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B890" s="9"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B891" s="9"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="9"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B893" s="9"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B894" s="9"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B895" s="9"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B896" s="9"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="9"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B898" s="9"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B899" s="9"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B900" s="9"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B901" s="9"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B902" s="9"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B903" s="9"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B904" s="9"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B905" s="9"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B906" s="9"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B907" s="9"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B908" s="9"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B909" s="9"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B910" s="9"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B911" s="9"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B912" s="9"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B913" s="9"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B914" s="9"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B915" s="9"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B916" s="9"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B917" s="9"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B918" s="9"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B919" s="9"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="9"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B921" s="9"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B922" s="9"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B923" s="9"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B924" s="9"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B925" s="9"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B926" s="9"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B927" s="9"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B928" s="9"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B929" s="9"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B930" s="9"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B931" s="9"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B932" s="9"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B933" s="9"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B934" s="9"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B935" s="9"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B936" s="9"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B937" s="9"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B938" s="9"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B939" s="9"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B940" s="9"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B941" s="9"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B942" s="9"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B943" s="9"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B944" s="9"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B945" s="9"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B946" s="9"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B947" s="9"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B948" s="9"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B949" s="9"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B950" s="9"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B951" s="9"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B952" s="9"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B953" s="9"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B954" s="9"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="9"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B956" s="9"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B957" s="9"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B958" s="9"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B959" s="9"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B960" s="9"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B961" s="9"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B962" s="9"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B963" s="9"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B964" s="9"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B965" s="9"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B966" s="9"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B967" s="9"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B968" s="9"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B969" s="9"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B970" s="9"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B971" s="9"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B972" s="9"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B973" s="9"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B974" s="9"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B975" s="9"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B976" s="9"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B977" s="9"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="9"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B979" s="9"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B980" s="9"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B981" s="9"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B982" s="9"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B983" s="9"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B984" s="9"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B985" s="9"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B986" s="9"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B987" s="9"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B988" s="9"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B989" s="9"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B990" s="9"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B991" s="9"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B992" s="9"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B993" s="9"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B994" s="9"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B995" s="9"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B996" s="9"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B997" s="9"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B998" s="9"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B999" s="9"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1000" s="9"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1001" s="9"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1002" s="9"/>
     </row>
-    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1003" s="9"/>
     </row>
-    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1004" s="9"/>
     </row>
-    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1005" s="9"/>
     </row>
-    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1006" s="9"/>
     </row>
-    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1007" s="9"/>
     </row>
-    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1008" s="9"/>
     </row>
-    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1009" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1009" s="9"/>
     </row>
-    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1010" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1010" s="9"/>
     </row>
-    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1011" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1011" s="9"/>
     </row>
-    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1012" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1012" s="9"/>
     </row>
-    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1013" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1013" s="9"/>
     </row>
-    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1014" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1014" s="9"/>
     </row>
-    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1015" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1015" s="9"/>
     </row>
-    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1016" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1016" s="9"/>
     </row>
-    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1017" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1017" s="9"/>
     </row>
-    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1018" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1018" s="9"/>
     </row>
-    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1019" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1019" s="9"/>
     </row>
-    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1020" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1020" s="9"/>
     </row>
-    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1021" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1021" s="9"/>
     </row>
-    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1022" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1022" s="9"/>
     </row>
-    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1023" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1023" s="9"/>
     </row>
-    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1024" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1024" s="9"/>
     </row>
-    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1025" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1025" s="9"/>
     </row>
-    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1026" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1026" s="9"/>
     </row>
-    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1027" s="9"/>
     </row>
-    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1028" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1028" s="9"/>
     </row>
-    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1029" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1029" s="9"/>
     </row>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1030" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1030" s="9"/>
     </row>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1031" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1031" s="9"/>
     </row>
-    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1032" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1032" s="9"/>
     </row>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1033" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1033" s="9"/>
     </row>
-    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1034" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1034" s="9"/>
     </row>
-    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1035" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1035" s="9"/>
     </row>
-    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1036" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1036" s="9"/>
     </row>
-    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1037" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1037" s="9"/>
     </row>
-    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1038" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1038" s="9"/>
     </row>
-    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1039" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1039" s="9"/>
     </row>
-    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1040" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1040" s="9"/>
     </row>
-    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1041" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1041" s="9"/>
     </row>
-    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1042" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1042" s="9"/>
     </row>
-    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1043" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1043" s="9"/>
     </row>
-    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1044" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1044" s="9"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
@@ -8187,43 +9212,43 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B1044">
+  <conditionalFormatting sqref="B8:B1044">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B1044">
+  <conditionalFormatting sqref="B8:B1044">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B1044">
+  <conditionalFormatting sqref="B8:B1044">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B1044">
+  <conditionalFormatting sqref="B8:B1044">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B1044">
+  <conditionalFormatting sqref="B8:B1044">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B1007">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B1007">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B1007">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
